--- a/Snap7/src/tags/s7-tags-s1-p1.xlsx
+++ b/Snap7/src/tags/s7-tags-s1-p1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbystrzycki\Desktop\Snap7\src\tags\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E8C16DA-9188-41B9-8386-1F698B0EBD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{626787F3-F687-42AF-893C-A5DE1ED11F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,6 +32,7 @@
     <definedName name="type">data!$B$2:$B$6</definedName>
     <definedName name="type_r">data!$B$3:$B$6</definedName>
     <definedName name="Word">data!$E$2:$E$4</definedName>
+    <definedName name="WordWord_As_BitArray">data!$E$15:$E$114</definedName>
     <definedName name="WordWord_As_Int">data!$F$15:$F$114</definedName>
     <definedName name="WordWord_As_Uint">data!$G$15:$G$114</definedName>
     <definedName name="WordWordAs_BitArray">data!$E$15:$E$114</definedName>
@@ -665,7 +666,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,19 +754,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3">
         <v>102</v>
       </c>
       <c r="E5" s="3">
+        <v>310</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3">
         <v>2</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="1"/>
@@ -779,7 +780,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
         <v>102</v>
@@ -811,13 +812,13 @@
         <v>102</v>
       </c>
       <c r="E7" s="3">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="1"/>
@@ -834,10 +835,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" s="1">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -13423,8 +13424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95CE504-85C2-4F9A-B1EB-B41DC58DD57D}">
   <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16765,7 +16766,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="035wU+rLzWYNSVbG1g5iI25+PX6rx8em/i3lkl+irnZ003e6/uRW0GXDaUiv3mV2J3p3yYhbQAtOIZE/jp05dQ==" saltValue="sIzG7G6Q/++4+ClrO+xJTg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+1xNOn5+Cw34Pw4DElFMgrNV/LEb9FK3fb2G/4JHBQR9UQTYyNxzHy7PeXwvSgQvxXGzKy3djHF3SA5Nzzrj+Q==" saltValue="i8TYg22ayNhccdOcXhJZOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Snap7/src/tags/s7-tags-s1-p1.xlsx
+++ b/Snap7/src/tags/s7-tags-s1-p1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbystrzycki\Desktop\Snap7\src\tags\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{626787F3-F687-42AF-893C-A5DE1ED11F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA826E6-1753-4A0A-82FB-CFF36119E865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11670" yWindow="0" windowWidth="11775" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S7-Tags" sheetId="25" r:id="rId1"/>
@@ -666,7 +666,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +734,7 @@
         <v>102</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -786,13 +786,13 @@
         <v>102</v>
       </c>
       <c r="E6" s="1">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="1"/>

--- a/Snap7/src/tags/s7-tags-s1-p1.xlsx
+++ b/Snap7/src/tags/s7-tags-s1-p1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbystrzycki\Desktop\Snap7\src\tags\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA826E6-1753-4A0A-82FB-CFF36119E865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBE1C59-55F0-4DAA-B184-FF487CD2A022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11670" yWindow="0" windowWidth="11775" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S7-Tags" sheetId="25" r:id="rId1"/>
@@ -666,7 +666,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +760,7 @@
         <v>102</v>
       </c>
       <c r="E5" s="3">
-        <v>310</v>
+        <v>34</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>11</v>
@@ -832,16 +832,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1">
         <v>102</v>
       </c>
       <c r="E8" s="1">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>

--- a/Snap7/src/tags/s7-tags-s1-p1.xlsx
+++ b/Snap7/src/tags/s7-tags-s1-p1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbystrzycki\Desktop\Snap7\src\tags\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBE1C59-55F0-4DAA-B184-FF487CD2A022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C842905-1901-4CAE-AA48-0B2F59DB3ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S7-Tags" sheetId="25" r:id="rId1"/>
@@ -666,7 +666,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +734,7 @@
         <v>102</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -754,16 +754,16 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3">
         <v>102</v>
       </c>
       <c r="E5" s="3">
-        <v>34</v>
+        <v>310</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
@@ -786,13 +786,13 @@
         <v>102</v>
       </c>
       <c r="E6" s="1">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="1"/>
@@ -832,16 +832,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
         <v>102</v>
       </c>
       <c r="E8" s="1">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>

--- a/Snap7/src/tags/s7-tags-s1-p1.xlsx
+++ b/Snap7/src/tags/s7-tags-s1-p1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbystrzycki\Desktop\Snap7\src\tags\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C842905-1901-4CAE-AA48-0B2F59DB3ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800C5C49-761A-4ECE-95C5-2DD8793AB5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="2865" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S7-Tags" sheetId="25" r:id="rId1"/>
@@ -666,7 +666,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +731,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="3">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E5" s="3">
-        <v>310</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
@@ -783,10 +783,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E6" s="1">
-        <v>306</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>17</v>
@@ -809,10 +809,10 @@
         <v>11</v>
       </c>
       <c r="D7" s="3">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E7" s="3">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>11</v>
@@ -835,10 +835,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>

--- a/Snap7/src/tags/s7-tags-s1-p1.xlsx
+++ b/Snap7/src/tags/s7-tags-s1-p1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbystrzycki\Desktop\Snap7\src\tags\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800C5C49-761A-4ECE-95C5-2DD8793AB5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3082D9D-00FF-4020-89BD-4BF4DD798211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2775" yWindow="2865" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -666,7 +666,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,10 +760,10 @@
         <v>100</v>
       </c>
       <c r="E5" s="3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
@@ -780,19 +780,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>100</v>
       </c>
       <c r="E6" s="1">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="1"/>
@@ -806,16 +806,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3">
         <v>100</v>
       </c>
       <c r="E7" s="3">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7" s="3">
         <v>2</v>

--- a/Snap7/src/tags/s7-tags-s1-p1.xlsx
+++ b/Snap7/src/tags/s7-tags-s1-p1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbystrzycki\Desktop\Snap7\src\tags\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3082D9D-00FF-4020-89BD-4BF4DD798211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D8DDFB4-71E0-4461-BF81-FABAC1C8455A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2775" yWindow="2865" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -666,7 +666,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,10 +760,10 @@
         <v>100</v>
       </c>
       <c r="E5" s="3">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
@@ -780,19 +780,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
         <v>100</v>
       </c>
       <c r="E6" s="1">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="1"/>
@@ -806,16 +806,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3">
         <v>100</v>
       </c>
       <c r="E7" s="3">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" s="3">
         <v>2</v>

--- a/Snap7/src/tags/s7-tags-s1-p1.xlsx
+++ b/Snap7/src/tags/s7-tags-s1-p1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbystrzycki\Desktop\Snap7\src\tags\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D8DDFB4-71E0-4461-BF81-FABAC1C8455A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7877E0-A6CC-4080-9203-964BBBDE5AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2775" yWindow="2865" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -666,7 +666,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +763,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
@@ -786,10 +786,10 @@
         <v>100</v>
       </c>
       <c r="E6" s="1">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
